--- a/页面说明.xlsx
+++ b/页面说明.xlsx
@@ -1,195 +1,168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="21510" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面说明</t>
+  </si>
+  <si>
+    <t>index.html</t>
   </si>
   <si>
     <t>过渡页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home.html</t>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query.html</t>
   </si>
   <si>
     <t>发现页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category.html</t>
   </si>
   <si>
     <t>分类页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoppingCart.html</t>
   </si>
   <si>
     <t>购物车页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonalCenter.html</t>
   </si>
   <si>
     <t>个人中心页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login.html</t>
+  </si>
+  <si>
+    <t>登录页面</t>
+  </si>
+  <si>
+    <t>Register.html</t>
+  </si>
+  <si>
+    <t>注册页面</t>
+  </si>
+  <si>
+    <t>ItemDes.html</t>
   </si>
   <si>
     <t>商品详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyOrder.html</t>
   </si>
   <si>
     <t>我的订单页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderDes.html</t>
+  </si>
+  <si>
+    <t>订单详情页面</t>
+  </si>
+  <si>
+    <t>AddressCon.html</t>
+  </si>
+  <si>
+    <t>收货地址管理页面</t>
+  </si>
+  <si>
+    <t>AddAddress.html</t>
   </si>
   <si>
     <t>添加收货地址页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货地址管理页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddAddress.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderCommitment.html</t>
   </si>
   <si>
     <t>订单确认页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderPay.html</t>
   </si>
   <si>
     <t>订单支付页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderResult.html</t>
+  </si>
+  <si>
+    <t>支付完毕跳转页面</t>
+  </si>
+  <si>
+    <t>OrderCancel.html</t>
   </si>
   <si>
     <t>支付取消跳转页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付完毕跳转页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonalCenter.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderCancel.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Query.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Category.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShoppingCart.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemDes.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyOrder.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderDes.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddressCon.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderCommitment.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderPay.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderResult.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmOrder.html</t>
+  </si>
+  <si>
+    <t>商品确认页面</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -203,7 +176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,11 +205,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -248,33 +236,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -319,69 +310,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,8 +507,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -551,257 +544,316 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="Home.html"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>